--- a/genshin/438468065882694040_2020-09-24_14-00-02.xlsx
+++ b/genshin/438468065882694040_2020-09-24_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:34:38</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10738425926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3527979232</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-25 14:14:30</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44099.59340277778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3525021773</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-25 13:59:52</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44099.58324074074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>3527055344</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-25 06:57:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44099.28967592592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -851,10 +859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-25 06:45:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44099.28128472222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -918,10 +924,8 @@
           <t>3526969646</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-25 04:16:34</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44099.1781712963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -989,10 +993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-25 03:05:59</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44099.1291550926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-25 01:32:00</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44099.06388888889</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1143,10 +1143,8 @@
           <t>3526632820</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-25 01:06:41</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44099.04630787037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1214,10 +1212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-25 00:23:42</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44099.01645833333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1281,10 +1277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-25 00:08:05</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44099.00561342593</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-25 00:06:26</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44099.00446759259</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1431,10 +1423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-25 00:00:40</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44099.00046296296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1506,10 +1496,8 @@
           <t>3526632820</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:57:31</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44098.99827546296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1581,10 +1569,8 @@
           <t>3526631108</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:55:53</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44098.9971412037</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1657,10 +1643,8 @@
           <t>3525021773</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:51:18</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44098.99395833333</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1724,10 +1708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:21:28</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44098.97324074074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1787,10 +1769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:17:04</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44098.97018518519</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1866,10 +1846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-24 23:09:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44098.96460648148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1937,10 +1915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-24 22:45:42</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44098.94840277778</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2008,10 +1984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-24 22:09:46</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44098.92344907407</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2076,10 +2050,8 @@
           <t>3526037978</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-24 21:17:08</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44098.88689814815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2147,10 +2119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-24 21:05:38</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44098.87891203703</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2218,10 +2188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-24 21:04:46</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44098.87831018519</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2285,10 +2253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-24 20:51:41</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44098.86922453704</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2356,10 +2322,8 @@
           <t>3524904795</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-24 20:36:32</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44098.85870370371</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2423,10 +2387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-24 20:33:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44098.85670138889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2502,10 +2464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-24 20:21:26</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44098.84821759259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2577,10 +2537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-24 19:48:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44098.82534722222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:56:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44098.78940972222</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2719,10 +2675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:41:54</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44098.77909722222</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
@@ -2799,10 +2753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:38:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44098.77678240741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2874,10 +2826,8 @@
           <t>3525021773</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:19:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44098.76378472222</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
@@ -2945,10 +2895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:19:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44098.76353009259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3016,10 +2964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:10:42</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44098.75743055555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3087,10 +3033,8 @@
           <t>3525418958</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:07:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44098.75530092593</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3158,10 +3102,8 @@
           <t>3525418958</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:07:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44098.75511574074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3229,10 +3171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-24 18:06:52</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44098.75476851852</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3296,10 +3236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:58:18</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44098.74881944444</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3363,10 +3301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:54:30</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44098.74618055556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3442,10 +3378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:53:27</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44098.74545138889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3517,10 +3451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:48:00</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44098.74166666667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3584,10 +3516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:47:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44098.74162037037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3657,10 +3587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:46:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44098.74094907408</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3729,10 +3657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:46:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44098.7403125</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3796,10 +3722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:40:57</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44098.73677083333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3875,10 +3799,8 @@
           <t>3525310507</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:27:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44098.72762731482</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3954,10 +3876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:23:11</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44098.72443287037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4029,10 +3949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:21:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44098.72309027778</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4092,10 +4010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:19:23</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44098.72179398148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4163,10 +4079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:14:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44098.71847222222</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4238,10 +4152,8 @@
           <t>3525262884</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:10:58</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44098.71594907407</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4313,10 +4225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:10:48</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44098.71583333334</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4380,10 +4290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:10:38</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44098.71571759259</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4455,10 +4363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:09:58</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44098.71525462963</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4534,10 +4440,8 @@
           <t>3525259514</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:09:52</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44098.71518518519</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4615,10 +4519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:05:38</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44098.71224537037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4686,10 +4588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:01:33</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44098.70940972222</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4753,10 +4653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:00:38</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44098.70877314815</v>
       </c>
       <c r="I60" t="n">
         <v>7</v>
@@ -4828,10 +4726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-24 17:00:05</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44098.70839120371</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4903,10 +4799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:57:19</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44098.70646990741</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4982,10 +4876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:52:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44098.70306712963</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5049,10 +4941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:49:51</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44098.70128472222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5120,10 +5010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:49:43</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44098.70119212963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5191,10 +5079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:48:19</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44098.7002199074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5262,10 +5148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:45:15</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44098.69809027778</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5337,10 +5221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:43:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44098.69709490741</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5404,10 +5286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:41:04</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44098.69518518518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5479,10 +5359,8 @@
           <t>3525188614</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:40:52</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44098.6950462963</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5550,10 +5428,8 @@
           <t>3525182251</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:35:06</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44098.69104166667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5629,10 +5505,8 @@
           <t>3524900338</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:31:45</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44098.68871527778</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5700,10 +5574,8 @@
           <t>3525164597</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:30:38</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44098.68793981482</v>
       </c>
       <c r="I73" t="n">
         <v>18</v>
@@ -5775,10 +5647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:23:13</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44098.68278935185</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5842,10 +5712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:16:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44098.67832175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5913,10 +5781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:16:40</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44098.67824074074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5988,10 +5854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:15:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44098.67741898148</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6059,10 +5923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-24 16:03:28</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44098.66907407407</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6138,10 +6000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:53:46</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44098.66233796296</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6217,10 +6077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:51:56</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44098.66106481481</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6284,10 +6142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:48:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44098.6583912037</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6355,10 +6211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:45:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44098.65693287037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6430,10 +6284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:45:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44098.65688657408</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6501,10 +6353,8 @@
           <t>3524937772</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:43:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44098.65488425926</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6580,10 +6430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:38:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44098.65181712963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6659,10 +6507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:36:29</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44098.65033564815</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6738,10 +6584,8 @@
           <t>3525061025</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:36:02</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44098.65002314815</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6809,10 +6653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:34:12</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44098.64875</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6888,10 +6730,8 @@
           <t>3524866224</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:32:22</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44098.64747685185</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6967,10 +6807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:31:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44098.64690972222</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7038,10 +6876,8 @@
           <t>3524937772</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:31:28</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44098.64685185185</v>
       </c>
       <c r="I91" t="n">
         <v>4</v>
@@ -7105,10 +6941,8 @@
           <t>3524866224</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:30:53</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44098.64644675926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7176,10 +7010,8 @@
           <t>3525021773</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:25:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44098.64254629629</v>
       </c>
       <c r="I93" t="n">
         <v>8</v>
@@ -7247,10 +7079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:24:44</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44098.64217592592</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7326,10 +7156,8 @@
           <t>3525021773</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:21:37</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44098.64001157408</v>
       </c>
       <c r="I95" t="n">
         <v>15</v>
@@ -7397,10 +7225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:20:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44098.63891203704</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7476,10 +7302,8 @@
           <t>3524926521</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:19:00</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44098.63819444444</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7556,10 +7380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:17:13</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44098.63695601852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7631,10 +7453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:15:29</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44098.63575231482</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7703,10 +7523,8 @@
           <t>3524927928</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:11:37</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44098.63306712963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7778,10 +7596,8 @@
           <t>3524866224</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:03:04</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44098.62712962963</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7857,10 +7673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:02:55</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44098.62702546296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7924,10 +7738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:02:51</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44098.62697916666</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7991,10 +7803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:02:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44098.62638888889</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8071,10 +7881,8 @@
           <t>3524937772</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-24 15:00:22</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44098.62525462963</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -8142,10 +7950,8 @@
           <t>3524967415</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:54:32</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44098.6212037037</v>
       </c>
       <c r="I106" t="n">
         <v>4</v>
@@ -8213,10 +8019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:49:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44098.61777777778</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8280,10 +8084,8 @@
           <t>3524949592</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:49:33</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44098.61774305555</v>
       </c>
       <c r="I108" t="n">
         <v>17</v>
@@ -8347,10 +8149,8 @@
           <t>3524949326</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:49:07</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44098.61744212963</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8418,10 +8218,8 @@
           <t>3524956712</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:46:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44098.61579861111</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -8493,10 +8291,8 @@
           <t>3524951802</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:46:41</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44098.61575231481</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -8572,10 +8368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:46:22</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44098.61553240741</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8643,10 +8437,8 @@
           <t>3524926521</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:46:03</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44098.6153125</v>
       </c>
       <c r="I113" t="n">
         <v>14</v>
@@ -8723,10 +8515,8 @@
           <t>3524904170</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:44:59</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44098.61457175926</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -8805,10 +8595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:43:16</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44098.61337962963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8876,10 +8664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:43:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44098.6132175926</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8951,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:42:03</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44098.61253472222</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9022,10 +8806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:41:58</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44098.61247685185</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9097,10 +8879,8 @@
           <t>3524937772</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:40:52</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44098.61171296296</v>
       </c>
       <c r="I119" t="n">
         <v>17</v>
@@ -9172,10 +8952,8 @@
           <t>3524902744</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:40:20</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44098.61134259259</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9239,10 +9017,8 @@
           <t>3524940626</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:37:48</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44098.60958333333</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9314,10 +9090,8 @@
           <t>3524924829</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:36:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44098.60870370371</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9389,10 +9163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:36:18</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44098.60854166667</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9460,10 +9232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:35:23</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44098.60790509259</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9527,10 +9297,8 @@
           <t>3524927928</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:34:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44098.60736111111</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9598,10 +9366,8 @@
           <t>3524927928</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:33:48</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44098.60680555556</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9673,10 +9439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:33:28</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44098.60657407407</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9744,10 +9508,8 @@
           <t>3524926521</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:31:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44098.60532407407</v>
       </c>
       <c r="I128" t="n">
         <v>19</v>
@@ -9824,10 +9586,8 @@
           <t>3524897774</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:31:36</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44098.60527777778</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9895,10 +9655,8 @@
           <t>3524902744</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:31:30</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44098.60520833333</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9966,10 +9724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:31:28</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44098.60518518519</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10041,10 +9797,8 @@
           <t>3524909086</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:27:57</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44098.60274305556</v>
       </c>
       <c r="I132" t="n">
         <v>6</v>
@@ -10120,10 +9874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:27:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44098.6024537037</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10199,10 +9951,8 @@
           <t>3524915237</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:26:57</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44098.60204861111</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10278,10 +10028,8 @@
           <t>3524904795</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:26:20</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44098.60162037037</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10357,10 +10105,8 @@
           <t>3524904170</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:26:05</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44098.60144675926</v>
       </c>
       <c r="I136" t="n">
         <v>9</v>
@@ -10436,10 +10182,8 @@
           <t>3524904170</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:25:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44098.60092592592</v>
       </c>
       <c r="I137" t="n">
         <v>6</v>
@@ -10511,10 +10255,8 @@
           <t>3524900338</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:25:12</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44098.60083333333</v>
       </c>
       <c r="I138" t="n">
         <v>5</v>
@@ -10582,10 +10324,8 @@
           <t>3524902744</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:23:15</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44098.59947916667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10649,10 +10389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:21:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44098.59854166667</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10728,10 +10466,8 @@
           <t>3524894609</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:21:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44098.59821759259</v>
       </c>
       <c r="I141" t="n">
         <v>25</v>
@@ -10795,10 +10531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:21:22</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44098.5981712963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10870,10 +10604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:20:43</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44098.5977199074</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10937,10 +10669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:19:41</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44098.59700231482</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11016,10 +10746,8 @@
           <t>3524900338</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:19:32</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44098.59689814815</v>
       </c>
       <c r="I145" t="n">
         <v>78</v>
@@ -11083,10 +10811,8 @@
           <t>3524896535</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:19:16</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44098.59671296296</v>
       </c>
       <c r="I146" t="n">
         <v>39</v>
@@ -11158,10 +10884,8 @@
           <t>3524897774</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:18:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44098.59631944444</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11237,10 +10961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:18:09</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44098.5959375</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11316,10 +11038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:18:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44098.59592592593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11387,10 +11107,8 @@
           <t>3524887529</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:17:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44098.59554398148</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11462,10 +11180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:17:30</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44098.59548611111</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11541,10 +11257,8 @@
           <t>3524896535</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:16:59</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44098.59512731482</v>
       </c>
       <c r="I152" t="n">
         <v>196</v>
@@ -11616,10 +11330,8 @@
           <t>3524887529</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:16:45</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44098.59496527778</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11687,10 +11399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:16:03</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44098.59447916667</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11758,10 +11468,8 @@
           <t>3524887529</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:15:26</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44098.59405092592</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11833,10 +11541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:14:09</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44098.59315972222</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11904,10 +11610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:14:07</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44098.59313657408</v>
       </c>
       <c r="I157" t="n">
         <v>30</v>
@@ -11975,10 +11679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:14:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44098.59309027778</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12046,10 +11748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:11:48</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44098.59152777777</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12113,10 +11813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:11:25</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44098.59126157407</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12184,10 +11882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:10:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44098.59096064815</v>
       </c>
       <c r="I161" t="n">
         <v>7</v>
@@ -12260,10 +11956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:10:24</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44098.59055555556</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12331,10 +12025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:10:04</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44098.59032407407</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12398,10 +12090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:10:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44098.5903125</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12461,10 +12151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:08:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44098.5894675926</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12528,10 +12216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:08:16</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44098.58907407407</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12591,10 +12277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:07:59</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44098.58887731482</v>
       </c>
       <c r="I167" t="n">
         <v>221</v>
@@ -12666,10 +12350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:05:47</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44098.58734953704</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12745,10 +12427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:04:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44098.58643518519</v>
       </c>
       <c r="I169" t="n">
         <v>43</v>
@@ -12824,10 +12504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:04:05</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44098.58616898148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12895,10 +12573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:03:40</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44098.58587962963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12970,10 +12646,8 @@
           <t>3524866224</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:03:33</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44098.58579861111</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13041,10 +12715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:03:06</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44098.58548611111</v>
       </c>
       <c r="I173" t="n">
         <v>31</v>
@@ -13112,10 +12784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:02:59</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44098.58540509259</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13187,10 +12857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:02:56</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44098.58537037037</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13258,10 +12926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:02:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44098.58501157408</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13329,10 +12995,8 @@
           <t>3524866224</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:02:23</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44098.58498842592</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13400,10 +13064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:02:00</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44098.58472222222</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13467,10 +13129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:01:41</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44098.58450231481</v>
       </c>
       <c r="I179" t="n">
         <v>52</v>
@@ -13534,10 +13194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:01:36</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44098.58444444444</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13601,10 +13259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:01:35</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44098.58443287037</v>
       </c>
       <c r="I181" t="n">
         <v>327</v>
@@ -13668,10 +13324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:01:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44098.58425925926</v>
       </c>
       <c r="I182" t="n">
         <v>24</v>
@@ -13747,10 +13401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:01:12</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44098.58416666667</v>
       </c>
       <c r="I183" t="n">
         <v>193</v>
@@ -13818,10 +13470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:56</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44098.58398148148</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13893,10 +13543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:54</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44098.58395833334</v>
       </c>
       <c r="I185" t="n">
         <v>6</v>
@@ -13972,10 +13620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:42</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44098.58381944444</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14051,10 +13697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:37</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44098.58376157407</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14122,10 +13766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44098.58373842593</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14189,10 +13831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:22</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44098.58358796296</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14268,10 +13908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:22</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44098.58358796296</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14343,10 +13981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-24 14:00:17</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44098.58353009259</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
